--- a/sketch.xlsx
+++ b/sketch.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazaragoza/Documents/LZR/BOOTCAMP/HOMEWORK/9 sql/sql-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545DA0B-14DE-3440-9A3D-B21FBCC3CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C0923A-F6F2-F242-96A0-E14FE79880CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13760" yWindow="3640" windowWidth="20440" windowHeight="16720" xr2:uid="{89B69787-147B-B249-899F-396E94C85D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,16 +133,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -160,6 +213,952 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>709660</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>115240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>719740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>164240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27887F4B-B911-C445-BDAD-37FFDE5E5FBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2525760" y="521640"/>
+            <a:ext cx="10080" cy="455400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27887F4B-B911-C445-BDAD-37FFDE5E5FBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2517120" y="513000"/>
+              <a:ext cx="27720" cy="473040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>496420</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2D47B9-16C7-A24E-A3AC-EEE126A45A26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1161360" y="1707120"/>
+            <a:ext cx="160560" cy="2646720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2D47B9-16C7-A24E-A3AC-EEE126A45A26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1152360" y="1698120"/>
+              <a:ext cx="178200" cy="2664360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>608620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660580</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>58520</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71634FA-5819-DA43-931A-A51C84387361}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3415320" y="4105440"/>
+            <a:ext cx="4014360" cy="1642680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71634FA-5819-DA43-931A-A51C84387361}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3406680" y="4096800"/>
+              <a:ext cx="4032000" cy="1660320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>668500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>489100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DA0550-62DD-2240-B196-13E228A5BB94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1494000" y="1613160"/>
+            <a:ext cx="4773600" cy="1844640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DA0550-62DD-2240-B196-13E228A5BB94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1485360" y="1604160"/>
+              <a:ext cx="4791240" cy="1862280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>480940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874B4E31-F599-3643-A850-1E30943B5588}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1306440" y="3994920"/>
+            <a:ext cx="4840920" cy="1053360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874B4E31-F599-3643-A850-1E30943B5588}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1297440" y="3985920"/>
+              <a:ext cx="4858560" cy="1071000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>587500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138120</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79631FB9-D68D-B446-AF49-708A8C2E6F88}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1413000" y="2395800"/>
+            <a:ext cx="4769280" cy="2009520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79631FB9-D68D-B446-AF49-708A8C2E6F88}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1404000" y="2387160"/>
+              <a:ext cx="4786920" cy="2027160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>61420</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>31300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="25" name="Ink 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EB8DBB-9909-914E-BC5B-2DB02B43C7D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2868120" y="47880"/>
+            <a:ext cx="960480" cy="540720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Ink 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EB8DBB-9909-914E-BC5B-2DB02B43C7D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2814120" y="-59760"/>
+              <a:ext cx="1068120" cy="756360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59140</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>199160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="26" name="Ink 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A8D0DF-53E4-BC47-82C7-78B5788CD57B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3934800" y="5941440"/>
+            <a:ext cx="912240" cy="556920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Ink 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A8D0DF-53E4-BC47-82C7-78B5788CD57B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3880800" y="5833440"/>
+              <a:ext cx="1019880" cy="772560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>40780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>196440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100560</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53553D56-3AAF-FD41-AD9F-0F5CF54DB2C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1856880" y="4463640"/>
+            <a:ext cx="1009440" cy="513720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53553D56-3AAF-FD41-AD9F-0F5CF54DB2C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1802880" y="4355640"/>
+              <a:ext cx="1117080" cy="729360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>990340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>172080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>48640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A96DCF-326A-BE49-96F3-471FB9138774}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7759440" y="3355200"/>
+            <a:ext cx="4299840" cy="757440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A96DCF-326A-BE49-96F3-471FB9138774}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7705800" y="3247200"/>
+              <a:ext cx="4407480" cy="973080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-20T06:42:44.725"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28 1 24575,'0'18'0,"0"-5"0,0 6 0,0-4 0,0 6 0,0 14 0,0-12 0,0 12 0,0-9 0,0 5 0,0-3 0,0 1 0,0-9 0,0 1 0,0-6 0,0 4 0,0-9 0,0 9 0,0-9 0,0 4 0,0-5 0,0 1 0,0-1 0,0 5 0,0-4 0,0 4 0,0-5 0,0 0 0,0 0 0,0 9 0,0-6 0,0 11 0,0-13 0,0 4 0,0 0 0,0-4 0,0 4 0,0 0 0,0-3 0,0 3 0,0-5 0,0 5 0,0-4 0,0 4 0,0-5 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 4 0,0-3 0,0 3 0,0-3 0,-4-1 0,3 0 0,-3 0 0,4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 2 0,0 4 0,0 1 0,0 5 0,0 0 0,0-5 0,0 4 0,0-3 0,-4-1 0,3 4 0,-3-9 0,4 9 0,0-9 0,0 4 0,0-4 0,0-1 0,0 0 0,-4 0 0,3 0 0,-3 0 0,4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-4 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-20T06:43:39.715"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1255 436 16383,'-53'0'0,"2"0"0,34 0 0,-8 0 0,4 0 0,-6 0 0,0 0 0,-5 0 0,4 0 0,-5 0 0,0 0 0,0 0 0,0 0 0,6 0 0,1 0 0,5 0 0,1 0 0,-6 0 0,5 0 0,-4 0 0,10 0 0,-4 0 0,5 0 0,-1 0 0,-2 4 0,3 1 0,-1 8 0,2-3 0,4 8 0,0-8 0,0 3 0,-4 0 0,3-3 0,-3 3 0,3 1 0,1-3 0,-1 3 0,-3-1 0,3-3 0,-3 3 0,0 0 0,3-3 0,-4 3 0,0-3 0,4-1 0,-4 1 0,-4 3 0,7-2 0,-12 3 0,12-5 0,-8 1 0,9-1 0,-4 1 0,1-1 0,3 4 0,-3-3 0,4 3 0,-1 0 0,1-3 0,-4 12 0,7-10 0,-7 11 0,7-13 0,-4 9 0,1-4 0,3 5 0,-3 1 0,4-1 0,-6 6 0,1-5 0,4 5 0,-4 0 0,5-4 0,-6 4 0,1-6 0,5 0 0,-4 0 0,7 0 0,-7 1 0,8-6 0,-8 4 0,8-9 0,-3 9 0,4 0 0,0-2 0,0 6 0,0-8 0,0 0 0,0 4 0,0-4 0,0 5 0,0 1 0,0-1 0,0-5 0,0 4 0,0-4 0,0 5 0,0 0 0,4 1 0,2-1 0,4-5 0,-5 4 0,4-4 0,-4 0 0,5 4 0,-1-3 0,1-1 0,9 8 0,-7-6 0,11 3 0,-7-1 0,4-8 0,0 4 0,1-5 0,-1 4 0,0-2 0,0 2 0,0-4 0,0 0 0,1 0 0,-1 0 0,0 1 0,-5-6 0,4 4 0,-4-3 0,5-1 0,1 4 0,5-3 0,1 5 0,6 0 0,0-5 0,1 4 0,-1-9 0,21 14 0,-9-7 0,18 4 0,-22-2 0,6-9 0,-5 10 0,13-10 0,-5 10 0,6-10 0,-8 10 0,0-10 0,8 4 0,-7-5 0,7 0 0,-8 0 0,1 0 0,-1 0 0,7 0 0,3 0 0,7 0 0,9 0 0,-7 0 0,15 0 0,-7 0 0,9 0 0,0 0 0,-10 0 0,17 0 0,-15 0 0,2 0 0,-19 0 0,-1 0 0,11 0 0,-2 0 0,5 0 0,-9 0 0,-3 0 0,-8 0 0,2 0 0,30 1 0,-1-2 0,12-5 0,-22 5 0,2 0 0,-15-5 0,-2-2 0,0 4 0,1 0 0,4 0 0,0-1 0,1-2 0,0 0 0,1 2 0,1 1 0,8 0 0,2-1 0,-6-3 0,1 1 0,6 6 0,-1 0 0,-5-6 0,-1-1 0,5 3 0,0 1 0,-4 0 0,0-1 0,0-3 0,-1 1 0,0 6 0,-1 1 0,1-4 0,-1 1 0,-9 2 0,0 2 0,8-1 0,1 0 0,-10 0 0,-1 0 0,7 0 0,-2 0 0,29 0 0,-31 0 0,-3 0 0,15 0 0,-7 0 0,2 0 0,15 0 0,-29 0 0,4 0 0,3 0 0,0 0 0,34 0 0,-33 0 0,-2 0 0,22 0 0,-15 0 0,15 0 0,-15 0 0,-1-6 0,-4 5 0,-12-4 0,13-1 0,-13 4 0,13-9 0,-13 4 0,5-5 0,1 5 0,-6-4 0,13 4 0,-13-5 0,14 5 0,0-3 0,-11 3 0,-5 1 0,-22 1 0,-10 1 0,-2 3 0,-5-30 0,7 25 0,5-21 0,9 27 0,3 0 0,0 0 0,0 5 0,15 2 0,20 12 0,2 2 0,21 8 0,-7-8 0,-13-2 0,27-4 0,-36 4 0,29-4 0,-24 4 0,-1-6 0,-10-5 0,-8 2 0,0-8 0,-6 3 0,4-5 0,-11 0 0,12 0 0,-13 0 0,13 5 0,-12-3 0,11 3 0,-11-5 0,12 0 0,-13 0 0,6 0 0,0 0 0,-5 0 0,11 0 0,-11 0 0,5 0 0,0 5 0,-11-3 0,9 3 0,-11-5 0,1 0 0,-2 0 0,-6 0 0,15 0 0,-11 0 0,11 0 0,-15 0 0,6 0 0,1 0 0,6 0 0,0 0 0,7 0 0,2 0 0,6 0 0,0 0 0,8-6 0,-6-1 0,13-6 0,-5 1 0,-1-1 0,-1 1 0,0-1 0,-6-4 0,5 3 0,-6-3 0,7-5 0,-13 8 0,5-12 0,-15 14 0,-5-3 0,-2 4 0,-6-3 0,0 2 0,0-2 0,0-1 0,1 4 0,5-9 0,1 3 0,0-4 0,5-1 0,-5 1 0,8-7 0,0-2 0,-1 0 0,3-12 0,8-4 0,-5-1 0,6-4 0,-17 22 0,-1-4 0,-7 12 0,-4-11 0,-3 10 0,-3-9 0,-1 9 0,-4-4 0,4 0 0,-9-1 0,4-1 0,-5-3 0,0 3 0,0-5 0,0 6 0,0-5 0,0 5 0,0-16 0,0 8 0,0-1 0,0 4 0,0 10 0,-5-9 0,-1 9 0,-9-10 0,-1 11 0,-11-6 0,-1 6 0,-5-2 0,-7 0 0,6 1 0,-28-1 0,17 0 0,-11 5 0,16 1 0,0 5 0,5-4 0,-5 4 0,1-5 0,-3 6 0,-13-2 0,5 1 0,-6 5 0,0-4 0,-1 3 0,-8 1 0,7-4 0,-5 4 0,13 0 0,-31-5 0,33 10 0,-9-1 0,-2-1 0,-1 4 0,4 0 0,1 0 0,-13 0 0,2 0 0,3 0 0,6 0 0,-26 0 0,5 0 0,1 0 0,-4 0 0,-6 0 0,14 0 0,19 0 0,-1 0 0,-15 0 0,-15 0 0,3 7 0,15-6 0,1 11 0,3-11 0,13 10 0,-6-10 0,0 10 0,-1-9 0,-9 4 0,-7 0 0,-12-5 0,15 6 0,-29-7 0,29 0 0,-24 0 0,10 0 0,0 0 0,9 0 0,1 0 0,16 0 0,3 0 0,-1-6 0,6 4 0,-31-10 0,19 4 0,-29-6 0,31 7 0,-20-6 0,12 6 0,-8-7 0,-5 6 0,5-4 0,0 5 0,25 0 0,0 1 0,-14-2 0,-27-3 0,42 9 0,-6-4 0,0 6 0,6 0 0,-13-5 0,13 3 0,-13-4 0,-3 6 0,-1-5 0,1 3 0,-6-10 0,13 5 0,-15-1 0,-20-9 0,29 14 0,-19-14 0,35 10 0,1 1 0,0 0 0,0 1 0,7 4 0,1-5 0,0 1 0,-1 4 0,-1-5 0,-4 6 0,4-5 0,-6 3 0,0-3 0,0 0 0,6 3 0,-4-3 0,4 5 0,-6 0 0,0 0 0,0 0 0,6 0 0,-4 0 0,11 0 0,-5 0 0,7 0 0,0 0 0,0 0 0,5 0 0,-3 0 0,-4 0 0,1 0 0,-6 0 0,7 0 0,-7 0 0,5 0 0,-12 0 0,13 0 0,-13 0 0,12 0 0,-11 0 0,11 0 0,-12 5 0,12-3 0,-11 8 0,-4-3 0,7-1 0,-5 4 0,15-9 0,0 9 0,3-5 0,3 1 0,-2 3 0,-4-8 0,-2 9 0,-11-9 0,11 9 0,-11-9 0,11 9 0,-5-9 0,0 4 0,5 0 0,-4-3 0,5 2 0,1 1 0,-7-3 0,5 3 0,-4-1 0,-1-2 0,5 3 0,-20 0 0,19 1 0,-12 0 0,15 4 0,-1-9 0,1 9 0,0-9 0,0 9 0,0-9 0,-7 9 0,5-8 0,-5 8 0,7-9 0,0 4 0,0-5 0,-1 5 0,-5-4 0,4 9 0,-5-9 0,7 4 0,0 0 0,0-4 0,0 4 0,-1-5 0,1 5 0,0-4 0,-9 9 0,6-9 0,-6 9 0,15-9 0,-5 4 0,11-5 0,-11 5 0,10-4 0,-4 4 0,0 0 0,5-4 0,-5 4 0,6-5 0,-6 5 0,4-3 0,-10 2 0,2 1 0,-4-4 0,3 4 0,-1-5 0,11 4 0,-11-3 0,5 4 0,-6-5 0,-1 5 0,-5-4 0,4 4 0,-28-5 0,10 5 0,9-3 0,15 4 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-20T06:42:48.587"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">444 0 24575,'0'47'0,"0"-16"0,0 57 0,0-25 0,0-12 0,0 1 0,0 34 0,0-35 0,0 1-360,0 1 0,0 0 360,0 45 0,1-39 0,-2 5 0,-5 17 0,-2 2 0,0-13 0,-2 2-815,-1 20 1,-2-1 814,1-25 0,1-4 0,3-8 0,1 0-626,-6 19 0,1 0 626,3-16 0,1 0 0,-5 13 0,1 1 0,4-7 0,0-3-509,-6 29 509,6-34 0,1-2 0,0 24 0,-1-27 0,2 1 0,5 34 0,-12 8 0,11-10 0,-10 0 0,10-1 0,-4-7 336,6 5-336,0-14 0,-6 15 0,4-6 0,-4 0 0,6 5 0,-6-5 0,4 8 0,-4 9 0,1-22 0,4-16 0,0-1 0,-4 3 0,-1 42 0,4-31 0,-10 16 0,10 9 1168,-10-7-1168,10 7 0,-10-18 0,11 7 0,-11-6 0,10-1 0,-4 7 0,6-15 0,0 15 0,-6-6 0,5-25 0,0 1 0,-5 21 0,5-8 0,2 0 0,-1-6 0,0-4 0,0 1 0,-6 12 0,4 25 0,-4-7 0,6-1 0,0-3 1259,0-15-1259,0 6 0,0 14 0,0-17 0,0 9 595,0-23-595,0 14 128,0-24-128,0 16 553,0-29-553,0-6 71,0-1-71,0-6 0,0 0 0,0-4 0,0-2 0,0-5 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-4 0 0,3 0 0,-3 0 0,4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-4 1 0,3-1 0,-3 0 0,4 5 0,0 1 0,0 0 0,0 4 0,0-4 0,0 6 0,0-1 0,0 0 0,0 6 0,0-5 0,0 5 0,0-5 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-4 0,0 3 0,0-9 0,0 8 0,0-8 0,-4-1 0,-1-5 0,-3-4 0,3 0 0,1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-20T06:42:52.851"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11151 1 24575,'-14'0'0,"-6"10"0,-9 8 0,-6 12 0,-8 13 0,-10 4 0,18-12 0,-4 2-706,-5-2 0,-3 1 706,-11 13 0,-3 1 0,-2-3 0,-3 2-930,11-7 0,-2 3 0,1-2 930,-23 13 0,0 2 0,15-9 0,-2 4 0,1-2 0,8-9 0,1-1 0,-1 0 0,-7 8 0,-3 1 0,3-1 0,5-4 0,2-1 0,-1 0 0,-6 3 0,-2-1 0,0 0 0,1-3 0,-1 0 0,2-2 0,6-2 0,1-1 0,-1-2 0,-7 0 0,-3-1 0,4-1 0,-13 11 0,1-2-905,-3-2 0,-1-2 905,8 0 0,2-2-539,5-8 1,2-2 538,-1 1 0,0-1 0,5-3 0,1-1 176,0-3 1,0 0-177,6-2 0,0 0 0,-2 1 0,3-1 2229,-29 5-2229,-9 17 0,11-16 612,26 0 0,-2 2-612,5-6 0,0-1 0,-3 6 0,1 2 0,7-2 0,1 0 0,-41 19 0,34-14 0,1 0 0,-39 14 0,36-14 0,-4 2 0,-15 1 0,-1-1 0,12-3 0,0 1 35,-17 7 1,0-1-36,17-11 0,4-2 0,0 4 0,1 0 0,-2-3 0,-1-2-4,6 1 1,-1-1 3,-4 1 0,-1 1 0,-1 3 0,1-1 0,-1-5 0,0 0 0,-3 5 0,-1 1 0,5-7 0,-1 0 0,-5 0 0,1 0 0,3 0 0,2-1 0,9-7 0,1-1 0,-3 0 0,1-1-213,-28 10 213,28-12 0,-2 1 0,-6 5 0,1 0 0,-27 2 0,30-5 0,0 0 0,-13 2 0,-17 1 0,0-6 0,-12 4 0,26-5 0,-22 0 0,33 4 383,9-7 1,-2 0-384,-39 3 0,8-1 1354,-17-6-1354,59 0 899,-58 0-899,51 0 206,-8-1 0,-1 2-206,0 4 0,0-2 0,0 1 0,-6 9 0,6-5 0,-2-2 0,-5 2 0,-1-2 0,-3 1 0,-26 2 0,30 0 0,-3 3-234,-1-1 1,0 3 233,6 6 0,-1 2 0,-11-1 0,-1 2 0,7 5 0,2 1 0,8-5 0,0-1 0,-2 1 0,1 1 0,6-3 0,1 0 0,-1-1 0,0 0 0,0-2 0,2 0 0,-32 12 0,9-10 0,14-3 0,5-6 0,11-1 0,3-4 467,-2 2-467,9-7 0,-3 2 0,4 1 0,2 1 0,-2 0 0,6 3 0,-4-3 0,9 0 0,-3 3 0,10-4 0,-4 0 0,4 4 0,-4-4 0,-2 5 0,7 0 0,-11 0 0,13-1 0,-13 2 0,10-2 0,-5 1 0,0 1 0,5-2 0,-4-3 0,8 2 0,-3-3 0,0 0 0,4-1 0,-4 0 0,5-3 0,0 3 0,0-4 0,4 4 0,-3-3 0,3 3 0,0 0 0,-3 1 0,4 3 0,-5-3 0,5 3 0,0-3 0,4 0 0,0-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-20T06:42:59.681"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 6 24575,'18'5'0,"6"6"0,4 5 0,5 6 0,14 8 0,-2 1 0,19 8 0,-5 0 0,0 6 0,7 3 0,-6-1-543,12 16 543,5-11 0,-3 13 0,-30-32 0,0 0 0,30 33 0,-30-32 0,0 1 0,-2 2 0,0-1 0,3-4 0,0-3 0,19 21 0,-6-11 0,0-1 0,5 9 0,-12-12 0,1 1 0,25 20 0,-13-7 0,-15-15 0,0 0 0,10 16 0,-17-18 0,1 1 0,31 24 0,-16-13 0,-17-13 0,2 1 0,29 19 0,-7-6 0,-12-9 0,-1 1 0,13 8 0,-23-16 0,2 0 0,34 27 0,-8-7 0,-1-5 0,8 10 0,-15-12 0,17 16 0,-11-10 0,-1-1 0,19 3 0,-16-8 0,-23-16 0,0-1 0,29 16 0,8-5 0,-38-15 0,1 0 0,2-6 0,-2 0 0,33 19 0,-1-4 0,-1-1 0,-9-2-771,14 6 1,1-1 770,-1-8 0,-26-2 0,1 0-387,-11-6 0,1-1 387,8 7 0,1 1 0,-8-8 0,0 1 0,8 6 0,1 0 0,-5-6 0,-1 0 0,35 19 0,4 0 0,-6 1 0,-33-11 0,1 2 0,1-3 0,-1-1 0,5 0 0,0 0 0,-6-1 0,0 0 0,1-3 0,-1 0 0,5 4 0,1 0 0,1-3 0,0 0 0,5 4 0,0-2 0,-14-9 0,0-1 0,11 7 0,-1-1 0,29 5 0,-22-4 0,2 2-600,-9-5 0,0 1 600,9 3 0,1 0 0,-6-4 0,-1 0 0,7 4 0,-1 0 0,-5-3 0,3 0 0,-1 1 0,6 2 0,-4-2 0,11 1 0,-2-2 0,4 3 0,1-1 0,4-2 0,-6-1 0,11 7 0,-26-10 0,3 0 0,-5-2 0,-4 0 63,24 9-63,-21-11 0,-1 0 0,17 10 0,-29-7 0,2-2 0,4-2 0,-1 0 0,31 13 0,-30-13 0,0-1 0,23 13 0,0-4 0,13 5 0,-24-8 0,7 6 0,-9-4 1381,0 9-1381,0-9 0,-15 0 0,2 1 0,31 7 0,-34-11 0,-1 2 0,42 20 0,-36-18 0,27 11 0,-23-9 0,7-3 785,0 9-785,0-3 1363,-7-2-1363,-9-1 466,-10-6-466,-5-1 0,8 9 0,-7-6 0,-3 5 0,-2-8 0,-13-1 0,9 0 0,-6 1 0,0-1 0,0 0 0,0 0 0,1 0 0,5 0 0,-3-4 0,16-1 0,-8 0 0,16 1 0,-13 1 0,6 3 0,-7-9 0,-5 9 0,4-4 0,-11-1 0,5 0 0,-6 0 0,-4 0 0,2 0 0,-7 4 0,8-8 0,-9 7 0,4-3 0,-5 4 0,0 0 0,0 0 0,1 0 0,-1-4 0,0 3 0,0-7 0,0 7 0,0-3 0,0 5 0,0-1 0,0-4 0,-4 3 0,4-3 0,-8 4 0,7 0 0,-7 0 0,7 0 0,-7 0 0,7 0 0,-7 1 0,7-1 0,-3 0 0,0 0 0,3 0 0,-7 0 0,7 0 0,-3 0 0,0-1 0,3 1 0,-3 0 0,3-4 0,1 3 0,1-3 0,-1 4 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0-4 0,0 3 0,-4-3 0,-1 0 0,-4-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2597">2928 79 24575,'24'0'0,"2"0"0,30 0 0,-17 0 0,48 0 0,-31 0 0,35 0 0,-6 0-1100,10 6 1100,-38 2 0,1 0 0,6 0 0,0 2-751,1 4 0,1 2 751,14 1 0,1 1 0,-15-2 0,1 2 0,20 12 0,0 0-1151,-15-12 0,1 1 1151,17 19 0,0 2 0,-12-16 0,1 0 0,-15 2 0,2 3 0,-2-3 0,15 1 0,0 0 0,-15-1 0,2 2 0,-2-1 0,15 5 0,-1 0 0,7 7 0,-2 1-784,-11-6 1,-2-2 783,5-2 0,0 0 0,-10 1 0,0 0 0,10 0 0,0-2 0,-10 0 0,0 0-194,10 4 0,0-1 194,-14-7 0,-2-1 258,-5-1 0,0 0-258,2 3 0,-1-1 0,25 13 0,-28-16 0,-1 1 0,33 18 0,-17-12 0,-1-1 0,7 5 0,-5-1 0,0-3 0,-4-6 0,-15-6 0,1 1 0,36 10 0,5-6 1928,-16-2-1928,7-6 0,-7 6 0,1-5 0,-3 4 0,-8-6 1796,0 0-1796,-7 0 1552,-2 0-1552,-15-2 862,-1 1-862,-13-2 205,5 1-205,-1-5 0,-8 3 0,5-8 0,-18 3 0,4-4 0,-5 0 0,1 4 0,-1-3 0,0 3 0,0-4 0,0 0 0,-4-4 0,3 3 0,-3-6 0,9 1 0,-3-8 0,8 3 0,-9-3 0,4 4 0,0 1 0,-3 4 0,3-4 0,-5 4 0,0 0 0,0 1 0,0 0 0,0 3 0,-4-3 0,-1 4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5240">603 0 24575,'20'0'0,"2"0"0,5 0 0,19 0 0,-1 6 0,20 1 0,0 12 0,9 2-1237,14 22 1237,-37-24 0,4 3 0,21 19 0,9 5 0,1-10 0,8 1 0,-2 3-1147,-9 4 0,-2 4 1,3-3 1146,6-5 0,3-2 0,-3 0 0,-11 1 0,-4 1 0,-1-2 0,-13-9 0,-3-1 0,4 1 0,19 5 0,3 1 0,-1 2 0,-8 2 0,-3 1 0,3-1 0,7-3 0,2-2 0,-2 2 0,-11-1 0,-2 1 0,0 0 0,3 0 0,1 0 0,-2-1 0,-4-5 0,-1-2 0,-1 2-719,-4 3 0,-2 1 1,0-2 718,2-3 0,1-2 0,-3 1-630,16 10 0,-3 2 630,1 3 0,0-2 0,-8-7 0,-1-1 0,2 4 0,-1-1-38,-6-8 1,0-1 37,1 5 0,-2-2 1981,30 9-1981,-25-8 0,-2-1 0,7 0 0,-13-5 0,0 1 0,16 16 0,-15-11 0,2 0 0,-12-4 0,1 0 0,17 9 0,-2-3 0,9 4 0,-18-7 0,-1-1 2239,3 0-2239,-10-8 0,2 1 0,21 11 0,8-5 0,6 13 0,-7-13 0,1 11 0,6-10 0,-16 3 0,16 2 0,-14-6 0,5 11 0,1-11 0,-7 4 550,-17-13 0,1-1-550,29 5 0,-23-4 0,-1-2 0,15-2 1031,18 6-1031,-21-8 0,16 1 0,0 0 0,0 0 0,0 0 0,-32-6 0,0-1 0,20 6 0,-22-5 0,0-1 0,37 0 0,2 5 0,-32-7 0,-2-2 0,15 5 0,28-1 0,-27-1 0,22-4 0,-9 4 0,-8-6 0,-3 0 0,20 0 0,-13 0 0,-28 0 0,-1 0 0,33 0 0,-16 0 0,12-13 0,-12-2 0,-11 0 0,1-1 0,17-11 0,-18 12 0,-3 0 0,6-10 0,-10 6 0,2-1 0,20-9 0,15-2 912,-31 7-912,-8 11 24,0-10-24,-7 10 646,6-4-646,-6 5 235,7-5-235,1 4 0,-1-10 0,7 9 0,3-10 0,-1 5 0,7-13 0,-7 6 0,1-5 0,5-1 0,-6 6 0,19-21 0,-8 11 0,-8 2 0,-2-2 0,4-1-255,5 2 1,-3 0 254,-20 9 0,30-16 0,2-2 0,-25 11 0,15-6 0,-1 2 0,-20 12 0,27-14 0,-22 13 0,-1-3 0,-10 6 0,-11 6 0,-2 1 509,-6 6-509,0 0 0,-5 1 0,4 3 0,-9-2 0,4 7 0,-4-7 0,-1 7 0,-4-7 0,-1 3 0,-4-3 0,0-7 0,0 9 0,0-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7386">13260 2218 24575,'0'20'0,"0"2"0,0 11 0,0 23 0,0-17 0,0 48 0,0-39 0,0 50 0,0-27 0,0 6 0,0 3 0,0-12 0,0 8 0,0 6 0,0-15 0,0 15 0,0-15 0,0 15 0,0 3 0,0-15 0,0 11 0,0-15 0,0-6 0,0 20 0,0-28 0,0 20 0,0-29 0,0 19 0,0-25 0,0 11 0,0-21 0,0 5 0,0-10 0,0 9 0,0-9 0,0 10 0,0-5 0,0 28 0,0-17 0,0 17 0,0-22 0,0 7 0,0-5 0,0-1 0,0-3 0,0-3 0,0-1 0,0-1 0,0-6 0,0-5 0,0 4 0,0-8 0,0 3 0,0-5 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0-3 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-20T06:43:11.984"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13446 7 24575,'-18'0'0,"-6"0"0,-10-5 0,-1 3 0,-12 8 0,6 7 0,-15 12 0,13-2 0,-19 3 0,11 4 0,-14-2 0,-21 20 0,30-19-218,4 1 0,1-1 218,3-7 0,-8 7 0,0 0 0,-1-5 0,7-3 0,0 1 0,-9 9 0,-23 5 0,15-3 0,-15 7 0,34-17 0,0 0 0,-7 4 0,1 0 0,7-7 0,1 1 0,-11 9 0,2-2 0,-26-2 0,32-1 0,0 1 0,-45 4 0,47-9 0,1 0 0,-24 7 0,9-5 0,2-1 0,-1 5 0,7-5 0,-4 0 0,6-2 0,3-2 0,-28 12 0,3-2 0,-1-1 0,-4-2 0,18-1 0,-1-1 0,-23-1 0,8 3 0,-6-3 0,15-1 0,-15-1 0,15-7 0,-7 6 0,9-5 0,0 5 0,7-6 0,-5 0 0,6 5 0,-8-3 0,-9 4 0,7-6 0,-7 0 0,1 1 0,-3-1 0,1 1 0,-7 6 0,15-5 0,-15 5 0,15-1 0,-15-4 436,-3 11-436,20-8 0,-3 0 0,11-5 0,0 0-381,-14 8 0,0-1 381,18-8 0,2-1 0,-6 1 0,-1 0 0,0 2 0,-1 1 0,1-3 0,-1 0 0,-4 3 0,1 1 0,3 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,1-1 0,-1 1 0,1-1 0,4-3 0,-1-1 0,-3 4 0,-1 0 0,5-4 0,2 1 0,-29 10 0,14-6 0,1-2 0,2 1 0,-2-3 0,-2 0 0,-3 1 0,19-6 0,-1 1 0,-33 12 0,16-9 0,-2 1 0,-24 9-335,30-10 1,0-1 334,-19 4 0,0 0 0,9-1 0,-7 1 0,6 0 0,0 0 0,-6-1-256,8 1 256,-2-1 0,4 1 0,0-1 0,5 0 0,-6 0 0,0 1 0,6-1 0,-15 1 0,15-1 0,-15 1 0,15-1 0,-15 1 0,15-1 0,-15 1 0,6-1 0,1 1 0,-7 0 0,6-1 0,1 1 0,-7 0 0,8-1 0,-9 1 0,1-1 0,-2-5 0,-10 5 0,17-5 20,15-5 1,2 2-21,-7 6 0,2-6 0,0-2 0,-18 4 0,6 4 0,-3-2 0,26-7 0,2 0 0,-12 7 0,0 0 0,6-4 0,4-1 0,-13 4 0,7-4 0,0-1 0,-10 4 0,-23-6 0,9 12 0,0-12-238,8 5 238,-6 1 0,15-6 0,-7 6 0,1-7 0,5 0 0,-13 0 0,13 0 0,-5 0 0,8 0 653,0 0-653,-8 0 263,13 0-263,-10 0 709,19-6-709,-12-1 259,13-5-259,-6-1 0,9 1 0,-1 6 0,0-5 0,7 5 0,1-6 0,-15 1 0,17 5 0,-11-4 0,17 4 0,10 0 0,-9-4 0,9 5 0,-4-1 0,2-3 0,3 7 0,1-6 0,6 7 0,5-3 0,0 4 0,4 0 0,1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-20T06:43:15.604"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13247 1 24575,'-13'8'0,"-10"7"0,-2 14 0,-18 10 0,-9 7 0,13-9 0,-15 6 0,-5-2 0,-6 14 0,20-21 0,0 0 0,-19 16 0,10-3 0,14-17 0,4-1 0,1-5 0,-6 5 0,7-7 0,1 1 0,0-1 0,5 5 0,-4-4 0,4-1 0,0-2 0,-4-3 0,11 4 0,-11 1 0,5-1 0,-13 2 0,5-1 0,-27 10 0,9-6 0,-21 13 0,-2 3-1114,0 1 1114,27-10 0,-1 1 0,-2-6 0,-3 0-1277,-10 11 1,-5 4 1276,5-8 0,-5 2 0,4-2 0,-10 7 0,-1 1-944,1-4 1,-7 3 0,6-4 943,-9 5 0,0-2 0,16-8 0,-4 0 0,-1 0 0,0 1 0,-2-1 0,-4 2 0,5-2 0,-4 1 0,-1 1 0,3-3 0,-7 2 0,4-1 0,-4-1 0,9-3 0,-2 0 0,0-1 0,4-2 0,2-2 0,4-3 0,0-1 0,3-1 0,0-1 0,0 1-578,-4-1 0,0 1 0,2 0 578,-24 8 0,-1 0 0,24-8 0,-1 0 0,1 0 0,-23 8 0,0 0 0,23-8 0,-1-1 0,1 1 0,2 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-3 2 0,-1 1 0,1 0 0,-24 6 0,1 0 0,28-7 0,-1 0 0,0 0 0,-25 11 0,-1-2 0,2-6 0,1-1 0,3 6 0,1 0 0,-4-6 0,0-1 0,5 4 0,-3 1 0,8-2 0,-3 1 0,1-2 0,14-6 0,2-2 0,-2 1 0,-10 7 0,-2 1 0,5-2 0,-6-1 0,4-1-117,-2 4 0,2 0 117,9-5 0,1 1 0,-5 3 0,-1-1 0,7-6 0,-1 0 0,1 2 0,-1 0 0,6 0 0,0 0 0,-5-3 0,1 1 0,8 5 0,1 0 0,-4-6 0,1 0 0,-2 5 0,1 2 0,0-3 0,-2 0 0,-4 3 0,-2 1 0,3 3 0,-1 0 0,-6 2 0,-1 1 0,6 1 0,0 1 265,-13 6 1,0 1-266,11-6 0,1 1 0,-14 9 0,0 1 0,12-6 0,1-1 0,-11 2 0,0 0 0,9 3 0,1-2 0,1-7 0,1-3 1038,10-1 0,1-1-1038,2-4 0,0-1 0,5-5 0,-1 1 0,-16 7 0,2 0 0,-23 6 0,29-10 0,2-3 0,-14-4 0,-25 10 0,22-10 0,-19 4 0,30 0 2035,-21-4-2035,6 10 0,0-4 0,-11 6 0,25-7 0,-15 5 0,18-5 0,-7 6 1301,8-6-1301,1 3 1852,8-9-1852,0 3 627,6-1-627,3-3 43,5 3-43,7-5 0,1-1 0,-3 5 0,7-4 0,-2-1 0,5-1 0,8-8 0,-3 8 0,5-4 0,-5 0 0,4 3 0,-4-3 0,5 4 0,-5 0 0,-1 1 0,-5 0 0,0 0 0,-1 0 0,1 0 0,0 5 0,5-5 0,-4 5 0,4-1 0,-6-3 0,6 3 0,-4-4 0,9 0 0,-4-1 0,5 0 0,0 0 0,0 0 0,0 0 0,4 0 0,1-5 0,4 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-20T06:43:22.128"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1471 92 16383,'-50'0'0,"-6"0"0,27 0 0,-25 0 0,11 0 0,-29 0 0,20 0 0,-28 0 0,20 0 0,-13 0 0,-1 0 0,7 5 0,-15 3 0,22 5 0,-11 0 0,21 5 0,-6-5 0,15 4 0,1-5 0,7-1 0,-1-5 0,7 3 0,1-3 0,6 0 0,0 3 0,-1-4 0,6 5 0,-4 0 0,9-5 0,-9 4 0,9-4 0,-4 5 0,-4-1 0,6 0 0,-6 1 0,9 3 0,1-3 0,-2 7 0,1-7 0,4 7 0,1-3 0,4 5 0,0 0 0,0 1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 6 0,0-5 0,0 5 0,0-6 0,0 1 0,0-6 0,0 4 0,0-5 0,0 1 0,0 2 0,0-2 0,0 8 0,0-8 0,5 8 0,5-8 0,5 5 0,13 7 0,-1-4 0,16 13 0,-1-11 0,10 12 0,-2-4 0,0-1 0,2 5 0,-4-11 0,4 11 0,-10-12 0,6 6 0,-13-9 0,12 2 0,-12-6 0,11-1 0,-11-1 0,11-3 0,-11 3 0,12-4 0,-12-1 0,11 1 0,-4 0 0,6 0 0,0 0 0,0 0 0,0 0 0,-6 0 0,4-6 0,-11 4 0,5-9 0,-7 9 0,0-9 0,15 9 0,-17-9 0,16 4 0,-26-5 0,11 5 0,-4-4 0,-1 4 0,5-5 0,10 0 0,-5 0 0,11 0 0,-15 0 0,0 0 0,0 0 0,0 0 0,-5 0 0,3-5 0,-3-1 0,-1-4 0,-1-1 0,0 1 0,-4-1 0,3 1 0,-4 0 0,-1 0 0,0 0 0,0-5 0,0 4 0,-5-3 0,4 4 0,-3-4 0,4 3 0,-5-4 0,4 1 0,-4 3 0,1-8 0,3 8 0,-8-8 0,3 8 0,1-3 0,-4 0 0,8 2 0,1-11 0,-4 6 0,3-7 0,-4 4 0,-4 4 0,3-3 0,-4 4 0,-1 0 0,1-4 0,0 9 0,-1-4 0,4 0 0,-7 4 0,2-7 0,-8-2 0,0 4 0,0-8 0,0 12 0,0-8 0,0-2 0,0 0 0,0-5 0,0 0 0,0 4 0,-14-18 0,6 10 0,-12-6 0,9 10 0,-3 6 0,2-1 0,-2 6 0,0 1 0,3 4 0,-8 0 0,4 1 0,0 3 0,1-2 0,0 7 0,-5-8 0,2 8 0,-1-3 0,0-1 0,7 0 0,-16 0 0,16-3 0,-12 7 0,12-7 0,-8 7 0,0-7 0,3 3 0,-7 0 0,12-3 0,-7 7 0,-2-12 0,4 7 0,-7-3 0,8 0 0,-1 4 0,-2-5 0,7 1 0,-8-1 0,9 0 0,-9 1 0,9-1 0,-9-4 0,8 4 0,-8-9 0,9 8 0,-4-8 0,0 9 0,2-10 0,-7 9 0,8-8 0,-8 8 0,3-8 0,-4 8 0,0-8 0,0 8 0,0-8 0,0 7 0,-1-2 0,1-1 0,0 4 0,0-4 0,5 6 0,-4 3 0,3-2 0,1 3 0,-3-5 0,4 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-20T06:43:26.849"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2165 0 16383,'-49'0'0,"-20"0"0,30 0 0,-39 0 0,39 0 0,-31 0 0,19 0 0,-14 0 0,8 0 0,1 0 0,0 0 0,6 0 0,-13 0 0,13 0 0,-13 0 0,13 0 0,-22 0 0,12 0 0,-6 0 0,3 0 0,6 0 0,-8 0 0,7 0 0,2 0 0,8 5 0,7-3 0,1 3 0,7-5 0,-1 0 0,1 0 0,6 0 0,-5 0 0,10 0 0,-9 0 0,-6 0 0,2 0 0,-1 5 0,10-4 0,5 8 0,1-4 0,0 1 0,0 3 0,0-4 0,0 6 0,-1-1 0,1 0 0,0 0 0,5-1 0,-8 5 0,11-3 0,-6 7 0,9-7 0,3 3 0,-2 3 0,7-1 0,-3 7 0,4-3 0,0 0 0,0 6 0,0-4 0,0 10 0,0-11 0,0 11 0,0-10 0,0 4 0,0 0 0,0-10 0,-4 9 0,3-15 0,-4 9 0,5-4 0,0 0 0,0 2 0,0-3 0,0 4 0,0 1 0,0-5 0,0 3 0,0-2 0,0-1 0,0 5 0,0-4 0,0 1 0,5 3 0,0-4 0,11 11 0,-1-5 0,12 6 0,2 1 0,6 2 0,6 0 0,4 6 0,5-3 0,2 6 0,0 0 0,0 0 0,0 0 0,-1-7 0,0 6 0,-2-12 0,1 4 0,-9-11 0,6 3 0,-6-3 0,8-1 0,-1 0 0,-7-7 0,6 1 0,-6 0 0,7 0 0,22 5 0,-17-4 0,17 5 0,-23-6 0,-5-1 0,-3-4 0,-6 3 0,7-9 0,-5 9 0,-1-9 0,-2 4 0,-5-5 0,6 0 0,-5 0 0,3 0 0,-3 0 0,-1 0 0,5 0 0,-5 0 0,7 0 0,-7 0 0,5 0 0,-5 0 0,13 0 0,-11 0 0,9-5 0,-10-6 0,5-1 0,0-4 0,-5 1 0,-2-2 0,0 1 0,-5-3 0,5 3 0,-6-4 0,0 0 0,1 4 0,-6-3 0,4 3 0,-8 1 0,3-4 0,-4 4 0,0-5 0,0 4 0,0-3 0,-1 4 0,2-5 0,-1 0 0,0 0 0,-1 5 0,1-4 0,0 3 0,-4 1 0,3-4 0,-8 9 0,3-9 0,0 4 0,-3 0 0,7-7 0,-7 11 0,8-12 0,-8 2 0,3-1 0,-4-4 0,0 6 0,0 0 0,0 0 0,0 0 0,0 0 0,0 4 0,0-3 0,0 0 0,0 3 0,0-7 0,0 8 0,-8-6 0,1 1 0,-12 0 0,8 0 0,-9 0 0,9 0 0,-8 4 0,8-3 0,-8 3 0,8 1 0,-3 1 0,0 0 0,4 4 0,-4-4 0,0 4 0,3 1 0,-12-5 0,12 4 0,-12-5 0,8 6 0,0-1 0,-4 0 0,3 1 0,-4-6 0,0 4 0,0-8 0,0 3 0,4-4 0,2 0 0,-1 0 0,8 0 0,-6-1 0,8 6 0,-5-4 0,5 9 0,-4-8 0,0 4 0,-5-5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-20T06:43:30.831"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1874 0 16383,'-62'0'0,"-5"0"0,-8 0 0,-3 0 0,27 2 0,0 3 0,-45 10 0,43-7 0,1 0 0,-44 14 0,44-14 0,2-1 0,-14 0 0,4-3 0,2-1 0,11 2 0,-6-4 0,-2-1 0,-7 5 0,-13 1 0,-7-5 0,22 10 0,-26-4 0,32-1 0,-10 4 0,18-3 0,11 4 0,1 0 0,2 5 0,16-5 0,-9 9 0,10-10 0,-1 4 0,2 1 0,5-5 0,-1 13 0,5-12 0,-3 12 0,7-7 0,-4 4 0,5 6 0,0-5 0,0 11 0,0 17 0,0-4 0,0 18 0,0-15 0,6 8 0,6-6 0,7 6 0,6-1 0,0-5 0,0 14 0,0-14 0,-1-1 0,-6-3 0,3-11 0,-3 5 0,4-7 0,-5-6 0,3-1 0,-5-5 0,1-1 0,3-5 0,-3 0 0,-1-5 0,4 0 0,2 0 0,6 0 0,7 1 0,-1-4 0,7-3 0,9 2 0,1-4 0,13 3 0,32-5 0,-21 0 0,-22 0 0,-1 0 0,22 0 0,-5 0 0,5 0 0,-8 0 0,9-6 0,-7 5 0,6-11 0,-7 4 0,-2 1 0,-6-4 0,5 10 0,-13-5 0,5 1 0,-7 4 0,-7-5 0,6 6 0,-12-5 0,5 4 0,-7-4 0,15 5 0,-11-5 0,11 4 0,-21-4 0,5 5 0,-5 0 0,6-5 0,1 4 0,-1-4 0,0 0 0,0 4 0,0-4 0,0 0 0,1-1 0,-1 0 0,0-4 0,0 4 0,-6-5 0,-1 1 0,-5 0 0,3-9 0,-8 7 0,2-6 0,-8 4 0,-1 4 0,-4-9 0,-1 4 0,-4-5 0,0-13 0,0 4 0,0-18 0,0 6 0,0-7 0,0 6 0,0-4 0,0 11 0,-4-5 0,-8 7 0,1 6 0,-9 1 0,-5-4 0,7 8 0,-10-3 0,12 11 0,-4 4 0,0 0 0,-6-1 0,4 1 0,-9 4 0,9-3 0,-10 8 0,11-8 0,-5 3 0,0 1 0,4-4 0,-4 3 0,6-4 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-5 0,0 4 0,0-8 0,0 8 0,0-8 0,-6 7 0,4-7 0,-10 7 0,5-8 0,-6 3 0,0-1 0,5-2 0,-4 3 0,10-9 0,-11-3 0,14-5 0,-9-7 0,20 21 0,-2-2 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E10549C-E813-AC4E-8BCF-01024F1AC365}">
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,119 +1469,128 @@
     <col min="2" max="8" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D11" s="2" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="G10" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D12" s="1" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="I19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="J19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="K19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="L19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="M19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="C23" s="5"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D26" s="2" t="s">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E30" s="2"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D27" s="1" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sketch.xlsx
+++ b/sketch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazaragoza/Documents/LZR/BOOTCAMP/HOMEWORK/9 sql/sql-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C0923A-F6F2-F242-96A0-E14FE79880CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F43A96-14BD-894B-921E-EDA9B63431D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="3640" windowWidth="20440" windowHeight="16720" xr2:uid="{89B69787-147B-B249-899F-396E94C85D8A}"/>
+    <workbookView xWindow="13360" yWindow="1280" windowWidth="20840" windowHeight="19080" xr2:uid="{89B69787-147B-B249-899F-396E94C85D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,13 +221,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>709660</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>115240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>719740</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>164240</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -286,13 +286,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>335860</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>81520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>496420</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>86640</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -351,13 +351,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>608620</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>41440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>660580</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>58520</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -416,13 +416,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>668500</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>190760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>489100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>3400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -481,13 +481,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>480940</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>134120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>368860</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>171480</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -546,13 +546,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>587500</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>160600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>403780</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>138120</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -611,13 +611,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>61420</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>47880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>31300</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>182200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -676,13 +676,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>137500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>48640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>59140</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>199160</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -741,13 +741,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>40780</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>196440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>59620</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>100560</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -806,13 +806,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>990340</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>172080</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>48640</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1458,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E10549C-E813-AC4E-8BCF-01024F1AC365}">
-  <dimension ref="B1:M31"/>
+  <dimension ref="B3:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1469,126 +1469,126 @@
     <col min="2" max="8" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D3" s="2"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="3" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G18" s="2" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G19" s="3" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C25" s="5"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D30" s="2" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E32" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D31" s="3" t="s">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
